--- a/source_data.xlsx
+++ b/source_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paypal-my.sharepoint.com/personal/vavashishtha_paypal_com/Documents/Python_Oracle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vavashishtha\OneDrive - PayPal\Python_Oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{3803D6F2-D41F-41DA-A942-D0BC3FC7C767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE58A7B0-6087-493A-9526-6A0543F45978}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
